--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N2">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O2">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P2">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q2">
-        <v>46.73450490263333</v>
+        <v>5.410296119264889</v>
       </c>
       <c r="R2">
-        <v>420.6105441236999</v>
+        <v>48.69266507338399</v>
       </c>
       <c r="S2">
-        <v>0.08076408747644326</v>
+        <v>0.01243067516184286</v>
       </c>
       <c r="T2">
-        <v>0.08076408747644326</v>
+        <v>0.01243067516184286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q3">
-        <v>130.8083093413662</v>
+        <v>7.346697264925779</v>
       </c>
       <c r="R3">
-        <v>1177.274784072296</v>
+        <v>66.120275384332</v>
       </c>
       <c r="S3">
-        <v>0.2260559678614777</v>
+        <v>0.01687974284577611</v>
       </c>
       <c r="T3">
-        <v>0.2260559678614777</v>
+        <v>0.01687974284577611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N4">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q4">
-        <v>51.57804545406177</v>
+        <v>3.546433067192667</v>
       </c>
       <c r="R4">
-        <v>464.202409086556</v>
+        <v>31.917897604734</v>
       </c>
       <c r="S4">
-        <v>0.08913443682766159</v>
+        <v>0.008148270717477835</v>
       </c>
       <c r="T4">
-        <v>0.08913443682766159</v>
+        <v>0.008148270717477838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N5">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q5">
-        <v>0.2704700868364444</v>
+        <v>0.01450370340577778</v>
       </c>
       <c r="R5">
-        <v>2.434230781528</v>
+        <v>0.130533330652</v>
       </c>
       <c r="S5">
-        <v>0.0004674120288324473</v>
+        <v>3.332365210823878E-05</v>
       </c>
       <c r="T5">
-        <v>0.0004674120288324473</v>
+        <v>3.332365210823879E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N6">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O6">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P6">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q6">
-        <v>52.87705967005</v>
+        <v>108.9918126135813</v>
       </c>
       <c r="R6">
-        <v>475.89353703045</v>
+        <v>980.9263135222319</v>
       </c>
       <c r="S6">
-        <v>0.0913793241543123</v>
+        <v>0.2504191615456277</v>
       </c>
       <c r="T6">
-        <v>0.09137932415431228</v>
+        <v>0.2504191615456277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q7">
         <v>148.0011137978707</v>
@@ -883,10 +883,10 @@
         <v>1332.010024180836</v>
       </c>
       <c r="S7">
-        <v>0.2557676587413413</v>
+        <v>0.3400467790776379</v>
       </c>
       <c r="T7">
-        <v>0.2557676587413413</v>
+        <v>0.340046779077638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N8">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q8">
-        <v>58.35721150402733</v>
+        <v>71.44381005869799</v>
       </c>
       <c r="R8">
-        <v>525.214903536246</v>
+        <v>642.994290528282</v>
       </c>
       <c r="S8">
-        <v>0.1008498312887229</v>
+        <v>0.1641490180180274</v>
       </c>
       <c r="T8">
-        <v>0.1008498312887229</v>
+        <v>0.1641490180180275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N9">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q9">
-        <v>0.3060193523053333</v>
+        <v>0.2921808509106666</v>
       </c>
       <c r="R9">
-        <v>2.754174170748</v>
+        <v>2.629627658196</v>
       </c>
       <c r="S9">
-        <v>0.0005288463800047622</v>
+        <v>0.0006713135780587968</v>
       </c>
       <c r="T9">
-        <v>0.0005288463800047622</v>
+        <v>0.0006713135780587969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N10">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O10">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P10">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q10">
-        <v>11.89959568170833</v>
+        <v>29.15050439718</v>
       </c>
       <c r="R10">
-        <v>107.096361135375</v>
+        <v>262.35453957462</v>
       </c>
       <c r="S10">
-        <v>0.02056424880447692</v>
+        <v>0.06697608466843979</v>
       </c>
       <c r="T10">
-        <v>0.02056424880447692</v>
+        <v>0.06697608466843981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q11">
-        <v>33.30656858809223</v>
+        <v>39.58377253389001</v>
       </c>
       <c r="R11">
-        <v>299.75911729283</v>
+        <v>356.25395280501</v>
       </c>
       <c r="S11">
-        <v>0.05755864162021468</v>
+        <v>0.09094752065362377</v>
       </c>
       <c r="T11">
-        <v>0.05755864162021469</v>
+        <v>0.0909475206536238</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N12">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q12">
-        <v>13.13286378522278</v>
+        <v>19.108069214805</v>
       </c>
       <c r="R12">
-        <v>118.195774067005</v>
+        <v>171.972622933245</v>
       </c>
       <c r="S12">
-        <v>0.02269551719389631</v>
+        <v>0.04390262494754613</v>
       </c>
       <c r="T12">
-        <v>0.02269551719389631</v>
+        <v>0.04390262494754613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N13">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q13">
-        <v>0.06886741785444445</v>
+        <v>0.07814549528999999</v>
       </c>
       <c r="R13">
-        <v>0.61980676069</v>
+        <v>0.70330945761</v>
       </c>
       <c r="S13">
-        <v>0.0001190130112956374</v>
+        <v>0.0001795467837430122</v>
       </c>
       <c r="T13">
-        <v>0.0001190130112956374</v>
+        <v>0.0001795467837430122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N14">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O14">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P14">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q14">
-        <v>6.379663658591666</v>
+        <v>0.7526875519484445</v>
       </c>
       <c r="R14">
-        <v>57.41697292732499</v>
+        <v>6.774187967536</v>
       </c>
       <c r="S14">
-        <v>0.01102499566147647</v>
+        <v>0.00172937196973705</v>
       </c>
       <c r="T14">
-        <v>0.01102499566147647</v>
+        <v>0.00172937196973705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>171.503098</v>
       </c>
       <c r="O15">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P15">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q15">
-        <v>17.85646427806511</v>
+        <v>1.022082240480889</v>
       </c>
       <c r="R15">
-        <v>160.708178502586</v>
+        <v>9.198740164328001</v>
       </c>
       <c r="S15">
-        <v>0.03085859251057079</v>
+        <v>0.002348332150409685</v>
       </c>
       <c r="T15">
-        <v>0.0308585925105708</v>
+        <v>0.002348332150409685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N16">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O16">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P16">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q16">
-        <v>7.040848787207889</v>
+        <v>0.4933844589373334</v>
       </c>
       <c r="R16">
-        <v>63.367639084871</v>
+        <v>4.440460130436001</v>
       </c>
       <c r="S16">
-        <v>0.01216762065936481</v>
+        <v>0.00113359819938745</v>
       </c>
       <c r="T16">
-        <v>0.01216762065936481</v>
+        <v>0.001133598199387451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N17">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O17">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P17">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q17">
-        <v>0.03692150344422222</v>
+        <v>0.002017774400888889</v>
       </c>
       <c r="R17">
-        <v>0.332293530998</v>
+        <v>0.018159969608</v>
       </c>
       <c r="S17">
-        <v>6.380577990808976E-05</v>
+        <v>4.636030556260915E-06</v>
       </c>
       <c r="T17">
-        <v>6.380577990808977E-05</v>
+        <v>4.636030556260915E-06</v>
       </c>
     </row>
   </sheetData>
